--- a/biology/Botanique/Urera/Urera.xlsx
+++ b/biology/Botanique/Urera/Urera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urera est un genre de plantes à fleurs de la famille des Urticaceae.
 Ce sont des lianes, des buissons ou de petits arbres ayant une répartition tropicale.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 octobre 2017) :
 Urera acuminata (Poir.) Decne.
 Urera altissima Lillo
 Urera aurantiaca Wedd.
@@ -561,19 +575,19 @@
 Urera thonneri Wildem. &amp; Th. Dur.
 Urera trinervis (Hochst.) I. Friis &amp; K. Immelman
 Urera verrucosa (Liebm.) V.W.Steinm.
-Selon GRIN            (16 octobre 2017)[3] :
+Selon GRIN            (16 octobre 2017) :
 Urera baccifera (L.) Gaudich. ex Wedd.
 Urera caracasana (Jacq.) Griseb.
 Urera kaalae Wawra
 Urera obovata Benth.
-Selon ITIS      (16 octobre 2017)[4] :
+Selon ITIS      (16 octobre 2017) :
 Urera baccifera (L.) Gaudich. ex Wedd.
 Urera caracasana (Jacq.) Gaudich. ex Griseb.
 Urera chlorocarpa Urb.
 Urera glabra Wedd.
 Urera kaalae Wawra
 Urera obovata Benth.
-Selon NCBI  (16 octobre 2017)[5] :
+Selon NCBI  (16 octobre 2017) :
 Urera alceifolia
 Urera baccifera
 Urera batesii
@@ -589,7 +603,7 @@
 Urera sansibarica
 Urera simplex
 Urera trinervis
-Selon The Plant List            (16 octobre 2017)[6] :
+Selon The Plant List            (16 octobre 2017) :
 Urera acuminata (Poir.) Gaudich. ex Decne.
 Urera altissima Lillo
 Urera aurantiaca Wedd.
@@ -633,7 +647,7 @@
 Urera thonneri De Wild. &amp; T.Durand
 Urera trinervis (Hochst.) Friis &amp; Immelman
 Urera verrucosa (Liebm.) V.W.Steinm.
-Selon Tropicos                                           (16 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Urera acuminata (Poir.) Gaudich. ex Decne.
 Urera alceifolia (Poir.) Gaudich. ex Wedd.
 Urera altissima Lillo
